--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/104.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/104.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1543273570078023</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.795184140280727</v>
+        <v>-1.792909136156457</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1148557254432109</v>
+        <v>-0.1252384051234931</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03920169861387403</v>
+        <v>0.03319215018587541</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1506465539058465</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.720304788717044</v>
+        <v>-1.720462758172322</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1774335868775617</v>
+        <v>-0.1716466594965761</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01911335120449999</v>
+        <v>0.0109745696939739</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1579812588414034</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.714183014884524</v>
+        <v>-1.72718713363347</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2761748650776583</v>
+        <v>-0.2686106288446289</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05193928202708047</v>
+        <v>0.03852163705929994</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1757789546941285</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.737278271230266</v>
+        <v>-1.750569052697283</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3307261704060046</v>
+        <v>-0.3229265047917504</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09008250130955052</v>
+        <v>0.07991878315222088</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1967206044889673</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.71569561816286</v>
+        <v>-1.713599320796876</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4016782427321062</v>
+        <v>-0.3915291626710184</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1347799281843552</v>
+        <v>0.1214299844116937</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2118163945430072</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.59890251769305</v>
+        <v>-1.592942982760545</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4067863283998712</v>
+        <v>-0.380529853186544</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1378075744237326</v>
+        <v>0.1184938262738286</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.215537620132232</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.298508655425834</v>
+        <v>-1.303075131532647</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5316169635478659</v>
+        <v>-0.4868182898407211</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1675064419366257</v>
+        <v>0.1475272703283896</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.207253138204353</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8414389796362537</v>
+        <v>-0.8463091962400869</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.612909631027554</v>
+        <v>-0.5545109460702811</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1823275143816036</v>
+        <v>0.1605289493946279</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1864498457305204</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2171369832511533</v>
+        <v>-0.2429427270843636</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6184836960923545</v>
+        <v>-0.532481221146818</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2379724074833591</v>
+        <v>0.2086815769032104</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1502666131186948</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5425948498024696</v>
+        <v>0.4977644602201339</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.787849519215139</v>
+        <v>-0.6835799200009981</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3351217927171433</v>
+        <v>0.3078132043364257</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.09747723598312626</v>
       </c>
       <c r="E12" t="n">
-        <v>1.28359784863519</v>
+        <v>1.225548038305017</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8822353538625778</v>
+        <v>-0.8120347038102298</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4641675896621439</v>
+        <v>0.4467836305334708</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.03117612965426477</v>
       </c>
       <c r="E13" t="n">
-        <v>2.138650524733706</v>
+        <v>2.065320371688964</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9118653003389984</v>
+        <v>-0.8408028323704054</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5139993287938137</v>
+        <v>0.5087125363677616</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.04237652099019946</v>
       </c>
       <c r="E14" t="n">
-        <v>2.89311569274361</v>
+        <v>2.799129356139441</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.054849004589046</v>
+        <v>-0.9900187060954643</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6537961975078523</v>
+        <v>0.6473987395294419</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1170360553127123</v>
       </c>
       <c r="E15" t="n">
-        <v>3.677165063179178</v>
+        <v>3.581872276485415</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.197383807221006</v>
+        <v>-1.146877495820853</v>
       </c>
       <c r="G15" t="n">
-        <v>0.753532256331725</v>
+        <v>0.7487126631440618</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1935085080010781</v>
       </c>
       <c r="E16" t="n">
-        <v>4.485564906713235</v>
+        <v>4.406552122723231</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.320807355367743</v>
+        <v>-1.287545331261288</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8412766647300541</v>
+        <v>0.8465286916775316</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2758980384063899</v>
       </c>
       <c r="E17" t="n">
-        <v>5.116607136497079</v>
+        <v>5.061839919249163</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.465259138686723</v>
+        <v>-1.42679388128693</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9669672880322636</v>
+        <v>0.9773371593783341</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3665663357537012</v>
       </c>
       <c r="E18" t="n">
-        <v>5.689777652788359</v>
+        <v>5.637717263503852</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.608900947346982</v>
+        <v>-1.586260081905417</v>
       </c>
       <c r="G18" t="n">
-        <v>1.095649572253922</v>
+        <v>1.096371108414515</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4624456887078522</v>
       </c>
       <c r="E19" t="n">
-        <v>6.202195190310118</v>
+        <v>6.13451351265274</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.840578706489055</v>
+        <v>-1.800350168412783</v>
       </c>
       <c r="G19" t="n">
-        <v>1.262953253568622</v>
+        <v>1.275577391735953</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5585698895058367</v>
       </c>
       <c r="E20" t="n">
-        <v>6.657610761224359</v>
+        <v>6.602399521723771</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.048232910015375</v>
+        <v>-2.002588886250257</v>
       </c>
       <c r="G20" t="n">
-        <v>1.403303320336471</v>
+        <v>1.423975361833493</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6502053326798769</v>
       </c>
       <c r="E21" t="n">
-        <v>6.994240620817854</v>
+        <v>6.950909416258964</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.339760355404705</v>
+        <v>-2.310918426442643</v>
       </c>
       <c r="G21" t="n">
-        <v>1.544020559351722</v>
+        <v>1.560451822383315</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.734317552870588</v>
       </c>
       <c r="E22" t="n">
-        <v>7.328316132617128</v>
+        <v>7.299459565558824</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.539467902433675</v>
+        <v>-2.501890689539227</v>
       </c>
       <c r="G22" t="n">
-        <v>1.720964036962425</v>
+        <v>1.747038145893404</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8086338625679459</v>
       </c>
       <c r="E23" t="n">
-        <v>7.554136823500389</v>
+        <v>7.546744584898203</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.76866206458003</v>
+        <v>-2.73343914549783</v>
       </c>
       <c r="G23" t="n">
-        <v>1.873197188275356</v>
+        <v>1.894651758000646</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8711951347204756</v>
       </c>
       <c r="E24" t="n">
-        <v>7.692543682992119</v>
+        <v>7.704865300503783</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.959014648269038</v>
+        <v>-2.923495307737938</v>
       </c>
       <c r="G24" t="n">
-        <v>1.998987838568552</v>
+        <v>2.031421590395984</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9218252225522436</v>
       </c>
       <c r="E25" t="n">
-        <v>7.856952680774972</v>
+        <v>7.866378394913437</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.11223800580067</v>
+        <v>-3.081601385247277</v>
       </c>
       <c r="G25" t="n">
-        <v>2.105132333943017</v>
+        <v>2.140074079593236</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9585448067978143</v>
       </c>
       <c r="E26" t="n">
-        <v>7.971812942620167</v>
+        <v>7.988721163620976</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.197744920196349</v>
+        <v>-3.175843583575341</v>
       </c>
       <c r="G26" t="n">
-        <v>2.142715646044232</v>
+        <v>2.18463671399848</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9810736477207143</v>
       </c>
       <c r="E27" t="n">
-        <v>7.876348158295561</v>
+        <v>7.898982314609681</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.252165092579195</v>
+        <v>-3.244668862501622</v>
       </c>
       <c r="G27" t="n">
-        <v>2.185534517234653</v>
+        <v>2.225886869208304</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9881970973239116</v>
       </c>
       <c r="E28" t="n">
-        <v>7.792607269219406</v>
+        <v>7.828191261342241</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.314132118455782</v>
+        <v>-3.308128059313874</v>
       </c>
       <c r="G28" t="n">
-        <v>2.234114699137636</v>
+        <v>2.265631740187915</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9809896121888854</v>
       </c>
       <c r="E29" t="n">
-        <v>7.811609957824168</v>
+        <v>7.838783143814648</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.340489230580773</v>
+        <v>-3.334882534759766</v>
       </c>
       <c r="G29" t="n">
-        <v>2.169596070109872</v>
+        <v>2.212436898444656</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9606616810973844</v>
       </c>
       <c r="E30" t="n">
-        <v>7.627755469025233</v>
+        <v>7.686804329423921</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.260676230662876</v>
+        <v>-3.265187203988104</v>
       </c>
       <c r="G30" t="n">
-        <v>2.16975220980312</v>
+        <v>2.211389054722003</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.929431483431887</v>
       </c>
       <c r="E31" t="n">
-        <v>7.393290982311099</v>
+        <v>7.465185992003453</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.237205263180257</v>
+        <v>-3.243798505695903</v>
       </c>
       <c r="G31" t="n">
-        <v>2.13063555712056</v>
+        <v>2.162517330735535</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8889382740802895</v>
       </c>
       <c r="E32" t="n">
-        <v>7.143876119968516</v>
+        <v>7.21959533230408</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.194266542576855</v>
+        <v>-3.203795943230367</v>
       </c>
       <c r="G32" t="n">
-        <v>2.040788142228804</v>
+        <v>2.073592725827698</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8403555683176016</v>
       </c>
       <c r="E33" t="n">
-        <v>6.956126677727868</v>
+        <v>7.027980212814203</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.112422811765725</v>
+        <v>-3.125255847764842</v>
       </c>
       <c r="G33" t="n">
-        <v>1.978198692301595</v>
+        <v>2.00536516916463</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7855993476145935</v>
       </c>
       <c r="E34" t="n">
-        <v>6.62666948529293</v>
+        <v>6.723167475243947</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.978109129935651</v>
+        <v>-2.996701036964624</v>
       </c>
       <c r="G34" t="n">
-        <v>1.796832069943116</v>
+        <v>1.82451636946071</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7257357366746627</v>
       </c>
       <c r="E35" t="n">
-        <v>6.37049060264521</v>
+        <v>6.46331199075679</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.925028648319283</v>
+        <v>-2.941359274439212</v>
       </c>
       <c r="G35" t="n">
-        <v>1.742478378914036</v>
+        <v>1.783038103917781</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6641046080220717</v>
       </c>
       <c r="E36" t="n">
-        <v>5.951781277899022</v>
+        <v>6.04713505666046</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.801852118046629</v>
+        <v>-2.815310627699751</v>
       </c>
       <c r="G36" t="n">
-        <v>1.674767425064173</v>
+        <v>1.710280056467829</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6023275444291021</v>
       </c>
       <c r="E37" t="n">
-        <v>5.570362503329211</v>
+        <v>5.654019223351974</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.690109160780294</v>
+        <v>-2.691234464428894</v>
       </c>
       <c r="G37" t="n">
-        <v>1.503639541106264</v>
+        <v>1.541523544101116</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5433226265109288</v>
       </c>
       <c r="E38" t="n">
-        <v>5.240051421946825</v>
+        <v>5.308623583792255</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.597390849263085</v>
+        <v>-2.596716886915278</v>
       </c>
       <c r="G38" t="n">
-        <v>1.448294728977468</v>
+        <v>1.488543394436072</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4876399552279847</v>
       </c>
       <c r="E39" t="n">
-        <v>4.870235778331468</v>
+        <v>4.945318233480507</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.500249392998098</v>
+        <v>-2.495970189530034</v>
       </c>
       <c r="G39" t="n">
-        <v>1.311814608903585</v>
+        <v>1.347975585986624</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.436839211731482</v>
       </c>
       <c r="E40" t="n">
-        <v>4.517554026367318</v>
+        <v>4.595376245196309</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.501344200612861</v>
+        <v>-2.490241814534016</v>
       </c>
       <c r="G40" t="n">
-        <v>1.178559749368346</v>
+        <v>1.210464090048361</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3911914709945561</v>
       </c>
       <c r="E41" t="n">
-        <v>4.129454180704407</v>
+        <v>4.208103451971069</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.369253679649534</v>
+        <v>-2.37212213659228</v>
       </c>
       <c r="G41" t="n">
-        <v>1.135010803127858</v>
+        <v>1.158128016617963</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3509624620620407</v>
       </c>
       <c r="E42" t="n">
-        <v>3.757403787729445</v>
+        <v>3.828676678331516</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.302096533774159</v>
+        <v>-2.298444328761791</v>
       </c>
       <c r="G42" t="n">
-        <v>1.025644096818134</v>
+        <v>1.063082247798283</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3152279750953357</v>
       </c>
       <c r="E43" t="n">
-        <v>3.429545807308941</v>
+        <v>3.491314913925923</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.212069802203438</v>
+        <v>-2.203892595690277</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9037929241760533</v>
+        <v>0.920933524954704</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2825836343985963</v>
       </c>
       <c r="E44" t="n">
-        <v>3.093174554082387</v>
+        <v>3.156840514004056</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.153471673184869</v>
+        <v>-2.156638381338545</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8902374371353278</v>
+        <v>0.9113278842165988</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2522298577586107</v>
       </c>
       <c r="E45" t="n">
-        <v>2.774060396483742</v>
+        <v>2.825684082563698</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.147494450552738</v>
+        <v>-2.152167052857305</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7777223202922298</v>
+        <v>0.8030047521847903</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2226383976948956</v>
       </c>
       <c r="E46" t="n">
-        <v>2.55305807894679</v>
+        <v>2.613197477515503</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.13319486028638</v>
+        <v>-2.136940993082966</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7071197325139048</v>
+        <v>0.7298313487539723</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1938300280042721</v>
       </c>
       <c r="E47" t="n">
-        <v>2.309110545550577</v>
+        <v>2.361381967389239</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.099882212763754</v>
+        <v>-2.09835253170647</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6712826233102192</v>
+        <v>0.6834743277177361</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1647412783501322</v>
       </c>
       <c r="E48" t="n">
-        <v>2.052911535520525</v>
+        <v>2.116597622824527</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.089026234638315</v>
+        <v>-2.099143598824212</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6221370449398909</v>
+        <v>0.6247084705130607</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1360605389044454</v>
       </c>
       <c r="E49" t="n">
-        <v>1.892000432818822</v>
+        <v>1.954062911281321</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.045130243532758</v>
+        <v>-2.048331107244331</v>
       </c>
       <c r="G49" t="n">
-        <v>0.565805381156117</v>
+        <v>0.5698766016734103</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1080166726428687</v>
       </c>
       <c r="E50" t="n">
-        <v>1.740501016080018</v>
+        <v>1.803802853357669</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.036703579462806</v>
+        <v>-2.043494436277719</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5402966686924829</v>
+        <v>0.5321981419466223</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.08161026822368783</v>
       </c>
       <c r="E51" t="n">
-        <v>1.524899546135671</v>
+        <v>1.592898992465635</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.98462428263732</v>
+        <v>-1.988952279759524</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4567698617738667</v>
+        <v>0.4531170468408225</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.05715223259908651</v>
       </c>
       <c r="E52" t="n">
-        <v>1.422667081981868</v>
+        <v>1.488259781321384</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.955120589740986</v>
+        <v>-1.949991156849535</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4159692181028053</v>
+        <v>0.4062806281526625</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.03494024885998603</v>
       </c>
       <c r="E53" t="n">
-        <v>1.26368698814275</v>
+        <v>1.335425248221179</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.882188104977484</v>
+        <v>-1.876776888733375</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3694462986424937</v>
+        <v>0.3673140159565825</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.01483350092779355</v>
       </c>
       <c r="E54" t="n">
-        <v>1.16292260305788</v>
+        <v>1.226863637204762</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.899159147807999</v>
+        <v>-1.898455909267708</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2893667633888575</v>
+        <v>0.2851802678636588</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.003766035675798493</v>
       </c>
       <c r="E55" t="n">
-        <v>1.150900456598499</v>
+        <v>1.217598942124959</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.94160840706831</v>
+        <v>-1.92232393511089</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2360438383034817</v>
+        <v>0.2364579744429937</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.02116434358839886</v>
       </c>
       <c r="E56" t="n">
-        <v>1.070539137992205</v>
+        <v>1.131237223900818</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.936911407936673</v>
+        <v>-1.917422002631866</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1793675693373452</v>
+        <v>0.1703883171342603</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.03775171439588761</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9383705471822542</v>
+        <v>1.00113321458166</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.883761090402817</v>
+        <v>-1.863685551327655</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1527396524318785</v>
+        <v>0.1449405967383011</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.05365050179273709</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8391010776760938</v>
+        <v>0.9059349655927925</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.908994728641238</v>
+        <v>-1.881372641032672</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1048779570861049</v>
+        <v>0.1051310741669553</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.06889737275288425</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6826399562319447</v>
+        <v>0.741611966625361</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.909994388630428</v>
+        <v>-1.894960453869265</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08679807846526222</v>
+        <v>0.08203642774189014</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.08324501440533082</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5856003567199752</v>
+        <v>0.6443832917035995</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.916936505773174</v>
+        <v>-1.890669661908342</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03040176308975305</v>
+        <v>0.03140020323758962</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.09626562469739222</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4636918515342804</v>
+        <v>0.5388231003374597</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.911173975219258</v>
+        <v>-1.886880224743707</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01282445910655076</v>
+        <v>0.01783556738671281</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1084294377131637</v>
       </c>
       <c r="E62" t="n">
-        <v>0.333159067979368</v>
+        <v>0.4161241379546994</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.887060761264024</v>
+        <v>-1.862710898086211</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02289859493058299</v>
+        <v>-0.02418064819310741</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1202070955581147</v>
       </c>
       <c r="E63" t="n">
-        <v>0.244044167820386</v>
+        <v>0.3335878422151219</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.880533390181466</v>
+        <v>-1.852399579125109</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.06114062136268622</v>
+        <v>-0.06758199362982246</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.13214678722206</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1094444331929176</v>
+        <v>0.2030160237368977</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.888785616937868</v>
+        <v>-1.863859378720528</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.07775547051798007</v>
+        <v>-0.07390382144431608</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1441806891453749</v>
       </c>
       <c r="E65" t="n">
-        <v>0.04975271640093868</v>
+        <v>0.1406778611285089</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.885593902036445</v>
+        <v>-1.869563356889476</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1211580357960486</v>
+        <v>-0.122684667249949</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1562155159763921</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.1181682046386296</v>
+        <v>0.0002094697493706818</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.864485157334872</v>
+        <v>-1.839171619487797</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.144126428641027</v>
+        <v>-0.1381217595784424</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.167817119687191</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.203081971176171</v>
+        <v>-0.08817474543886714</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.845841102088037</v>
+        <v>-1.835732886712291</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1672741381649693</v>
+        <v>-0.1633907732161144</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1782812822667973</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.2256197600233653</v>
+        <v>-0.1206145964730661</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.853557818490253</v>
+        <v>-1.83410134890199</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2021664802403722</v>
+        <v>-0.2040639434657354</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1872216364049522</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1918020981803924</v>
+        <v>-0.1129857086483014</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.797351188445213</v>
+        <v>-1.783623093852967</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1824300570614818</v>
+        <v>-0.183780421439802</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.194217189488774</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2548008048816993</v>
+        <v>-0.1641190185041516</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.821112478169963</v>
+        <v>-1.823042877111871</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.222797657052052</v>
+        <v>-0.2190838500513331</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1990462015396717</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1645612109947939</v>
+        <v>-0.08977639713600755</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.837907253924898</v>
+        <v>-1.811776422370981</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2120673225860234</v>
+        <v>-0.218469050009171</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2014892805188398</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.09280343345470815</v>
+        <v>-0.0431680887809512</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.870335516466239</v>
+        <v>-1.850048334916245</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2167301661597623</v>
+        <v>-0.2230855396114771</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2012052960994687</v>
       </c>
       <c r="E73" t="n">
-        <v>0.09634028745298559</v>
+        <v>0.1373147585169201</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.886167837393265</v>
+        <v>-1.865260366515018</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1896795742253092</v>
+        <v>-0.2119996213909044</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1980376638899149</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2243516589302215</v>
+        <v>0.2653273498355095</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.904461798171646</v>
+        <v>-1.882859017721907</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1958599004427972</v>
+        <v>-0.213135903611686</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1918049822832694</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3785865699042401</v>
+        <v>0.4051809411724857</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.939193731109064</v>
+        <v>-1.912177904653186</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2133884107718597</v>
+        <v>-0.2249866623609008</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1824029272221308</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5370787272019603</v>
+        <v>0.5512252273784547</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.006650348036723</v>
+        <v>-1.970927903920266</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1846093036395026</v>
+        <v>-0.1970827913996771</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1693448326832487</v>
       </c>
       <c r="E77" t="n">
-        <v>0.770548433292319</v>
+        <v>0.7819929848708197</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.981602125684033</v>
+        <v>-1.962482332309335</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1019638320987872</v>
+        <v>-0.1245687122204238</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.152490241210318</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9627795726657115</v>
+        <v>0.9588242370770004</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.022047795521227</v>
+        <v>-2.000638969846694</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.05705537266982773</v>
+        <v>-0.07561708862530138</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1320612100652271</v>
       </c>
       <c r="E79" t="n">
-        <v>1.200522992938044</v>
+        <v>1.202231990674292</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.987987385248909</v>
+        <v>-1.967409881456783</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.001602604581247798</v>
+        <v>-0.03509578862419065</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.108870880391929</v>
       </c>
       <c r="E80" t="n">
-        <v>1.374507745345841</v>
+        <v>1.366248199541319</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.013119776654989</v>
+        <v>-2.000038197980097</v>
       </c>
       <c r="G80" t="n">
-        <v>0.004855235544160639</v>
+        <v>-0.01863524940011406</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.08389590335092437</v>
       </c>
       <c r="E81" t="n">
-        <v>1.668950611570027</v>
+        <v>1.651252543292829</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.988924833329071</v>
+        <v>-1.984318712378269</v>
       </c>
       <c r="G81" t="n">
-        <v>0.008134779023034947</v>
+        <v>-0.01559784442990874</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.05842496288443533</v>
       </c>
       <c r="E82" t="n">
-        <v>1.915309161401426</v>
+        <v>1.887549231719915</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.914899370712836</v>
+        <v>-1.91385945595898</v>
       </c>
       <c r="G82" t="n">
-        <v>0.09664768747406662</v>
+        <v>0.06267327601716954</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.03336860289826154</v>
       </c>
       <c r="E83" t="n">
-        <v>2.180134279562726</v>
+        <v>2.14514678986175</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.872947806724751</v>
+        <v>-1.869612760464292</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1112357702205267</v>
+        <v>0.08228893490206383</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.01025364126857272</v>
       </c>
       <c r="E84" t="n">
-        <v>2.352553975513988</v>
+        <v>2.35176961752369</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.823942510110075</v>
+        <v>-1.831251799500223</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0980651431268291</v>
+        <v>0.08114777331586821</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.01025626412825101</v>
       </c>
       <c r="E85" t="n">
-        <v>2.551801642352689</v>
+        <v>2.529767647984489</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.706164387747318</v>
+        <v>-1.707925838661766</v>
       </c>
       <c r="G85" t="n">
-        <v>0.103752043516828</v>
+        <v>0.09257890663948032</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.02738250464986991</v>
       </c>
       <c r="E86" t="n">
-        <v>2.716465586978423</v>
+        <v>2.693524030643222</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.538816792143892</v>
+        <v>-1.538262374248728</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0664840604054914</v>
+        <v>0.05964928930185267</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.04078527965416044</v>
       </c>
       <c r="E87" t="n">
-        <v>2.821964786276888</v>
+        <v>2.798297424336357</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.355535628781101</v>
+        <v>-1.35980263383563</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1163426360469381</v>
+        <v>0.1191165552847883</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.04961905136840796</v>
       </c>
       <c r="E88" t="n">
-        <v>2.937953401374067</v>
+        <v>2.901905869536903</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.190033653145515</v>
+        <v>-1.189307847540185</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06271536054386516</v>
+        <v>0.07835128701297837</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.05293386171496844</v>
       </c>
       <c r="E89" t="n">
-        <v>2.890197832226047</v>
+        <v>2.860570325432334</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.009775256656687</v>
+        <v>-1.012407674297532</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07502904908673169</v>
+        <v>0.0866504776614892</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.04952111349541548</v>
       </c>
       <c r="E90" t="n">
-        <v>2.858007438748638</v>
+        <v>2.841398078879435</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7937791680344837</v>
+        <v>-0.8047126060858694</v>
       </c>
       <c r="G90" t="n">
-        <v>0.003185272731224456</v>
+        <v>0.03118002187328357</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03853715936885978</v>
       </c>
       <c r="E91" t="n">
-        <v>2.817193986743365</v>
+        <v>2.789630451519767</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5295767788841437</v>
+        <v>-0.5484422353366378</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01963612923065763</v>
+        <v>0.01009079463336597</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.01997087782189188</v>
       </c>
       <c r="E92" t="n">
-        <v>2.724582411344587</v>
+        <v>2.702384958235017</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3100699868465781</v>
+        <v>-0.3324193102046572</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0650910775859834</v>
+        <v>-0.04151581366764071</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.004514487506738416</v>
       </c>
       <c r="E93" t="n">
-        <v>2.635840172719098</v>
+        <v>2.614489289508855</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.08232255654546952</v>
+        <v>-0.1057770561698161</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1116097276015578</v>
+        <v>-0.08158760212998811</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03106730404074989</v>
       </c>
       <c r="E94" t="n">
-        <v>2.545404794294956</v>
+        <v>2.52640088584884</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1090040704643055</v>
+        <v>0.08406929335749141</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1640189915131649</v>
+        <v>-0.1382602115720642</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05554786001405231</v>
       </c>
       <c r="E95" t="n">
-        <v>2.335378609256762</v>
+        <v>2.311739303667361</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2125503037558233</v>
+        <v>0.1906901367804962</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1802068961947351</v>
+        <v>-0.1527970609816774</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07537950157286323</v>
       </c>
       <c r="E96" t="n">
-        <v>2.185480844215099</v>
+        <v>2.173060419553801</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2934800684328464</v>
+        <v>0.277333638357295</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2542268695248794</v>
+        <v>-0.2295342309267343</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08922828995233396</v>
       </c>
       <c r="E97" t="n">
-        <v>1.993853526311687</v>
+        <v>1.981291600053384</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3970659465683528</v>
+        <v>0.3756241851772748</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2189807734569627</v>
+        <v>-0.1888793582974157</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09907805763798293</v>
       </c>
       <c r="E98" t="n">
-        <v>1.855422269992888</v>
+        <v>1.828116731215554</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4365278143539522</v>
+        <v>0.4135033088067129</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3131427672160348</v>
+        <v>-0.2854108938856541</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1061565626831342</v>
       </c>
       <c r="E99" t="n">
-        <v>1.716872689062799</v>
+        <v>1.700900696300797</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4343284403935986</v>
+        <v>0.4179923249875787</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2870216943929457</v>
+        <v>-0.2658300004793345</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1161284788310234</v>
       </c>
       <c r="E100" t="n">
-        <v>1.504169562174358</v>
+        <v>1.479567191836371</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4252076865935082</v>
+        <v>0.4112844173847035</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4090625523654949</v>
+        <v>-0.3773960807494125</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1303121188403598</v>
       </c>
       <c r="E101" t="n">
-        <v>1.451876793112009</v>
+        <v>1.419320447228552</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4333135323874899</v>
+        <v>0.427457074049355</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4190127982859627</v>
+        <v>-0.3973038916384691</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1536633135184901</v>
       </c>
       <c r="E102" t="n">
-        <v>1.338063155148115</v>
+        <v>1.293997606094421</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4375744382352518</v>
+        <v>0.4312428516899302</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4320333848931803</v>
+        <v>-0.4053658231437249</v>
       </c>
     </row>
   </sheetData>
